--- a/WeeklySoir.xlsx
+++ b/WeeklySoir.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Desktop\__Insta-Joliot__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159305A-4E99-400F-A177-F40490514618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44415A-3FD5-4009-B074-FE2916CB21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -57,37 +48,133 @@
     <t>Ven</t>
   </si>
   <si>
+    <t>Entree 1</t>
+  </si>
+  <si>
+    <t>Entree 2</t>
+  </si>
+  <si>
+    <t>Entree 3</t>
+  </si>
+  <si>
     <t>Plat 1</t>
   </si>
   <si>
     <t>Plat 2</t>
   </si>
   <si>
-    <t>Entree</t>
-  </si>
-  <si>
-    <t>Veloutée de maïs carotte</t>
-  </si>
-  <si>
-    <t>Gratin de légumes</t>
-  </si>
-  <si>
-    <t>Coquillettes bio</t>
-  </si>
-  <si>
-    <t>Entree Bio</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Plat 1 Bio</t>
-  </si>
-  <si>
-    <t>Plat 2 Bio</t>
-  </si>
-  <si>
-    <t>Dessert Bio</t>
+    <t>Plat 3</t>
+  </si>
+  <si>
+    <t>Plat 4</t>
+  </si>
+  <si>
+    <t>Dessert 1</t>
+  </si>
+  <si>
+    <t>Dessert 2</t>
+  </si>
+  <si>
+    <t>Sauté de dinde BBC façon bucco</t>
+  </si>
+  <si>
+    <t>Blé à la provençale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop de légumes au romanesco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feuilleté thon tomate </t>
+  </si>
+  <si>
+    <t>Guacamole fait maison</t>
+  </si>
+  <si>
+    <t>Salade de pâtes bio au surimi</t>
+  </si>
+  <si>
+    <t>Rougail saucisse</t>
+  </si>
+  <si>
+    <t>Dos de colin</t>
+  </si>
+  <si>
+    <t>Riz bio au curry</t>
+  </si>
+  <si>
+    <t>Duo de haricots</t>
+  </si>
+  <si>
+    <t>Tartelette meringuée</t>
+  </si>
+  <si>
+    <t>Entree 4</t>
+  </si>
+  <si>
+    <t>Demi pamplemousse</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Houmous de petits pois</t>
+  </si>
+  <si>
+    <t>Salade de tomate</t>
+  </si>
+  <si>
+    <t>Sauté de porc BBC à l'ancienne</t>
+  </si>
+  <si>
+    <t>Œuf bio à la florentine</t>
+  </si>
+  <si>
+    <t>Épinard béchamel</t>
+  </si>
+  <si>
+    <t>Boulgour bio aux petits légumes</t>
+  </si>
+  <si>
+    <t>Pastèque</t>
+  </si>
+  <si>
+    <t>Taboulé</t>
+  </si>
+  <si>
+    <t>Museau vinaigrette</t>
+  </si>
+  <si>
+    <t>Rôti de bœuf</t>
+  </si>
+  <si>
+    <t>Filet de poisson frais</t>
+  </si>
+  <si>
+    <t>Couscous bio</t>
+  </si>
+  <si>
+    <t>Courgettes sautés</t>
+  </si>
+  <si>
+    <t>Feuilleté abricot</t>
+  </si>
+  <si>
+    <t>Asperge/tomate</t>
+  </si>
+  <si>
+    <t>Cake jambon fromage</t>
+  </si>
+  <si>
+    <t>Pavé de dinde</t>
+  </si>
+  <si>
+    <t>Steak haché (bœuf)</t>
+  </si>
+  <si>
+    <t>Torsades bio</t>
+  </si>
+  <si>
+    <t>Carottes bio vichy</t>
   </si>
 </sst>
 </file>
@@ -97,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +200,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,100 +225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -535,27 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -563,186 +558,197 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>45327</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>45544</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>45328</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>45545</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45329</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>45546</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>45330</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>45547</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>45331</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>45548</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="timePeriod" dxfId="9" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="10" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="lastMonth">
       <formula>AND(MONTH(B2)=MONTH(EDATE(TODAY(),0-1)),YEAR(B2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6 G2:G6 I2:I6" xr:uid="{4851B805-F19E-4D7A-8E50-F5C9D488CE56}">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WeeklySoir.xlsx
+++ b/WeeklySoir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44415A-3FD5-4009-B074-FE2916CB21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A432F-B07D-4F76-ACA7-1DD083B081F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -84,30 +84,6 @@
     <t xml:space="preserve">Trop de légumes au romanesco </t>
   </si>
   <si>
-    <t xml:space="preserve">Feuilleté thon tomate </t>
-  </si>
-  <si>
-    <t>Guacamole fait maison</t>
-  </si>
-  <si>
-    <t>Salade de pâtes bio au surimi</t>
-  </si>
-  <si>
-    <t>Rougail saucisse</t>
-  </si>
-  <si>
-    <t>Dos de colin</t>
-  </si>
-  <si>
-    <t>Riz bio au curry</t>
-  </si>
-  <si>
-    <t>Duo de haricots</t>
-  </si>
-  <si>
-    <t>Tartelette meringuée</t>
-  </si>
-  <si>
     <t>Entree 4</t>
   </si>
   <si>
@@ -175,6 +151,21 @@
   </si>
   <si>
     <t>Carottes bio vichy</t>
+  </si>
+  <si>
+    <t>Salade de pomme de terre</t>
+  </si>
+  <si>
+    <t>Crépinette de porc BBC</t>
+  </si>
+  <si>
+    <t>Boulettes pois chiches</t>
+  </si>
+  <si>
+    <t>Lentilles</t>
+  </si>
+  <si>
+    <t>Carottes braisées</t>
   </si>
 </sst>
 </file>
@@ -533,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -613,28 +604,19 @@
         <v>45545</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -645,28 +627,28 @@
         <v>45546</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,31 +659,31 @@
         <v>45547</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,28 +694,28 @@
         <v>45548</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/WeeklySoir.xlsx
+++ b/WeeklySoir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A432F-B07D-4F76-ACA7-1DD083B081F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFA5CB-C7EE-4F94-83BC-C4075045FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -87,72 +87,9 @@
     <t>Entree 4</t>
   </si>
   <si>
-    <t>Demi pamplemousse</t>
-  </si>
-  <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>Houmous de petits pois</t>
-  </si>
-  <si>
     <t>Salade de tomate</t>
   </si>
   <si>
-    <t>Sauté de porc BBC à l'ancienne</t>
-  </si>
-  <si>
-    <t>Œuf bio à la florentine</t>
-  </si>
-  <si>
-    <t>Épinard béchamel</t>
-  </si>
-  <si>
-    <t>Boulgour bio aux petits légumes</t>
-  </si>
-  <si>
-    <t>Pastèque</t>
-  </si>
-  <si>
-    <t>Taboulé</t>
-  </si>
-  <si>
-    <t>Museau vinaigrette</t>
-  </si>
-  <si>
-    <t>Rôti de bœuf</t>
-  </si>
-  <si>
-    <t>Filet de poisson frais</t>
-  </si>
-  <si>
-    <t>Couscous bio</t>
-  </si>
-  <si>
-    <t>Courgettes sautés</t>
-  </si>
-  <si>
-    <t>Feuilleté abricot</t>
-  </si>
-  <si>
-    <t>Asperge/tomate</t>
-  </si>
-  <si>
-    <t>Cake jambon fromage</t>
-  </si>
-  <si>
-    <t>Pavé de dinde</t>
-  </si>
-  <si>
-    <t>Steak haché (bœuf)</t>
-  </si>
-  <si>
-    <t>Torsades bio</t>
-  </si>
-  <si>
-    <t>Carottes bio vichy</t>
-  </si>
-  <si>
     <t>Salade de pomme de terre</t>
   </si>
   <si>
@@ -166,6 +103,57 @@
   </si>
   <si>
     <t>Carottes braisées</t>
+  </si>
+  <si>
+    <t>Chou-fleur</t>
+  </si>
+  <si>
+    <t>Emincé de dinde BBC aux champignons</t>
+  </si>
+  <si>
+    <t>Galette lentilles vertes</t>
+  </si>
+  <si>
+    <t>Poêlée rustique</t>
+  </si>
+  <si>
+    <t>Purée</t>
+  </si>
+  <si>
+    <t>Omelette à l'espagnole</t>
+  </si>
+  <si>
+    <t>Pommes rissolées</t>
+  </si>
+  <si>
+    <t>Salade verte</t>
+  </si>
+  <si>
+    <t>Salad'bar</t>
+  </si>
+  <si>
+    <t>Blanquette de veau</t>
+  </si>
+  <si>
+    <t>Haricots rouges</t>
+  </si>
+  <si>
+    <t>Poêlée forestière</t>
+  </si>
+  <si>
+    <t>Riz bio pilaf</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>11/09</t>
+  </si>
+  <si>
+    <t>12/10</t>
+  </si>
+  <si>
+    <t>13/10</t>
   </si>
 </sst>
 </file>
@@ -216,11 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,72 +593,54 @@
         <v>45545</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>45546</v>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>45547</v>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
@@ -678,52 +649,122 @@
       </c>
       <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>45548</v>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B34">
     <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>

--- a/WeeklySoir.xlsx
+++ b/WeeklySoir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFA5CB-C7EE-4F94-83BC-C4075045FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4701DFDE-83D1-4253-B9F7-A70B7844A4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -75,85 +75,76 @@
     <t>Dessert 2</t>
   </si>
   <si>
-    <t>Sauté de dinde BBC façon bucco</t>
-  </si>
-  <si>
-    <t>Blé à la provençale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trop de légumes au romanesco </t>
-  </si>
-  <si>
     <t>Entree 4</t>
   </si>
   <si>
-    <t>Salade de tomate</t>
-  </si>
-  <si>
-    <t>Salade de pomme de terre</t>
-  </si>
-  <si>
-    <t>Crépinette de porc BBC</t>
-  </si>
-  <si>
-    <t>Boulettes pois chiches</t>
-  </si>
-  <si>
-    <t>Lentilles</t>
-  </si>
-  <si>
-    <t>Carottes braisées</t>
-  </si>
-  <si>
-    <t>Chou-fleur</t>
-  </si>
-  <si>
-    <t>Emincé de dinde BBC aux champignons</t>
-  </si>
-  <si>
-    <t>Galette lentilles vertes</t>
-  </si>
-  <si>
-    <t>Poêlée rustique</t>
-  </si>
-  <si>
-    <t>Purée</t>
-  </si>
-  <si>
-    <t>Omelette à l'espagnole</t>
-  </si>
-  <si>
-    <t>Pommes rissolées</t>
-  </si>
-  <si>
     <t>Salade verte</t>
   </si>
   <si>
+    <t>Pamplemousse</t>
+  </si>
+  <si>
+    <t>Fromage frais bio</t>
+  </si>
+  <si>
+    <t>Salade andalouse</t>
+  </si>
+  <si>
+    <t>Rôti de porc fumé</t>
+  </si>
+  <si>
+    <t>Purée Crécy</t>
+  </si>
+  <si>
+    <t>Duo brocolis chou-fleur</t>
+  </si>
+  <si>
+    <t>Crème de poireau maison</t>
+  </si>
+  <si>
+    <t>Saucisse grillée BBC</t>
+  </si>
+  <si>
+    <t>Flageolets bio</t>
+  </si>
+  <si>
+    <t>Poêlée de légumes maison</t>
+  </si>
+  <si>
+    <t>Salade strasbourgeoise</t>
+  </si>
+  <si>
+    <t>Lasagnes aux legumes grillés</t>
+  </si>
+  <si>
+    <t>Glace bio</t>
+  </si>
+  <si>
+    <t>Soupe méridionale</t>
+  </si>
+  <si>
+    <t>Paëlla (riz bio)</t>
+  </si>
+  <si>
     <t>Salad'bar</t>
   </si>
   <si>
-    <t>Blanquette de veau</t>
-  </si>
-  <si>
-    <t>Haricots rouges</t>
-  </si>
-  <si>
-    <t>Poêlée forestière</t>
-  </si>
-  <si>
-    <t>Riz bio pilaf</t>
-  </si>
-  <si>
-    <t>Muffin</t>
-  </si>
-  <si>
-    <t>11/09</t>
-  </si>
-  <si>
-    <t>12/10</t>
-  </si>
-  <si>
-    <t>13/10</t>
+    <t>Pizza tomate-mozza-basilico</t>
+  </si>
+  <si>
+    <t>18/11</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>22/11</t>
   </si>
 </sst>
 </file>
@@ -163,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +164,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,11 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +498,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -572,62 +556,68 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>45544</v>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>45545</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -635,46 +625,40 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
